--- a/Windows/Busquedas/WebOfScience/Hybrid/Orthoptera/Orthoptera_Hybrids.xlsx
+++ b/Windows/Busquedas/WebOfScience/Hybrid/Orthoptera/Orthoptera_Hybrids.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\Archivos\Libro\Busquedas\WebOfScience\Hybrid\Orthoptera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\Interespecific_hybrids\Windows\Busquedas\WebOfScience\Hybrid\Orthoptera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>Sp1</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Field</t>
   </si>
 </sst>
 </file>
@@ -794,7 +803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
@@ -805,11 +814,12 @@
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,13 +830,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -836,14 +849,17 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2">
         <v>2007</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -853,14 +869,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3">
         <v>2007</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -870,14 +889,17 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4">
         <v>2001</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -887,14 +909,17 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
         <v>1993</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -904,14 +929,17 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6">
         <v>1995</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -921,435 +949,533 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7">
         <v>2019</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>2019</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D8">
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9">
         <v>2011</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D9">
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10">
         <v>2011</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D10">
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11">
         <v>1992</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D11">
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12">
         <v>2009</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>2015</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13">
         <v>2015</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14">
+        <v>2015</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="D14">
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15">
         <v>2009</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D15">
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16">
         <v>2005</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="D16">
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17">
         <v>2000</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18">
         <v>2009</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="D18">
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19">
         <v>2013</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D19">
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20">
         <v>1994</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="D20">
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21">
         <v>1983</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21">
-        <v>2016</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>99</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22">
         <v>2016</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23">
+        <v>2016</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="D23">
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24">
         <v>2015</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D24">
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25">
         <v>1991</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="D25">
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26">
         <v>2017</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="D26">
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27">
         <v>2018</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>115</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="D27">
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28">
         <v>2013</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="D28">
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29">
         <v>1996</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>123</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="D29">
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30">
         <v>2017</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>133</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>134</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="D30">
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31">
         <v>2020</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>136</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D31">
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32">
         <v>2001</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>108</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>86</v>
       </c>
-      <c r="D32">
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33">
         <v>1984</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F33" t="s">
         <v>85</v>
       </c>
     </row>
